--- a/biology/Médecine/1099_en_santé_et_médecine/1099_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1099_en_santé_et_médecine/1099_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1099_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1099_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1099 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1099_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1099_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Vers 1099-1100 : Al Idrissi (mort en 1165 ou 1175), géographe, botaniste et médecin arabe, auteur  d'une importante pharmacopée mentionnée sous divers titres, dont celui de Kitāb al-Jāmiʿ li-ṣifāt aštāt al-nabāt wa ḍurūb anwāʿ al-mufradāt (« Livre des propriétés de diverses plantes et remèdes variés »), où les noms sont donnés en plusieurs langues, dont le syriaque, le grec, le persan, le hindi, le latin ou le berbère[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Vers 1099-1100 : Al Idrissi (mort en 1165 ou 1175), géographe, botaniste et médecin arabe, auteur  d'une importante pharmacopée mentionnée sous divers titres, dont celui de Kitāb al-Jāmiʿ li-ṣifāt aštāt al-nabāt wa ḍurūb anwāʿ al-mufradāt (« Livre des propriétés de diverses plantes et remèdes variés »), où les noms sont donnés en plusieurs langues, dont le syriaque, le grec, le persan, le hindi, le latin ou le berbère.</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1099_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1099_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,7 +555,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Anneliese Nef, « Al-Idrīsī : Un complément d’enquête biographique », dans Henri Bresc (dir.) et Emmanuelle Tixier du Mesnil (dir.), Géographes et voyageurs au Moyen Âge, Nanterre, Presses universitaires de Paris Nanterre, 2010, 274 p. (ISBN 978-2-84016-066-3, lire en ligne), § 27, § 13 (n. 26) et § 18 (n. 31).
